--- a/biology/Médecine/Jean_Abadie/Jean_Abadie.xlsx
+++ b/biology/Médecine/Jean_Abadie/Jean_Abadie.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Joseph Louis Irénée Jean Abadie dit Jean Abadie, né à Tarbes (Hautes-Pyrénées) le 15 décembre 1873 et mort le 24 mars 1946[1], est un neurologue français.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Joseph Louis Irénée Jean Abadie dit Jean Abadie, né à Tarbes (Hautes-Pyrénées) le 15 décembre 1873 et mort le 24 mars 1946, est un neurologue français.
 Il a décrit le signe d'Abadie en neurologie, analgésie ou insensibilité du tendon d'Achille à la pression, syndrome observé dans le tabes dorsalis.
 </t>
         </is>
@@ -512,9 +524,11 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Les Localisations fonctionnelles de la capsule interne [1]</t>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les Localisations fonctionnelles de la capsule interne </t>
         </is>
       </c>
     </row>
